--- a/medicine/Enfance/Du_sang_sur_la_via_Appia/Du_sang_sur_la_via_Appia.xlsx
+++ b/medicine/Enfance/Du_sang_sur_la_via_Appia/Du_sang_sur_la_via_Appia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Du sang sur la via Appia (The Thieves of Ostia) est le premier volume de la série de romans écrits par Caroline Lawrence, Les Mystères romains, publié au Royaume-Uni aux éditions Orion en 2001 et en France, aux éditions Milan, en 2002. L'action de ce roman historique se situe sous la Rome antique.
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À Ostia, principal port romain, en 79 après Jésus-Christ ; quatre enfants unissent leurs efforts pour découvrir le mystérieux tueur en série de chiens. Ils n'ont pourtant aucun lien :
 Flavia est la fille de Flavius Geminus, un riche capitaine romain.
@@ -549,7 +563,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Site officiel des éditions Milan
  Portail de la Rome antique   Portail de la littérature américaine   Portail de la littérature d’enfance et de jeunesse                   </t>
